--- a/results/I3_N5_M2_T30_C150_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1387.469878925093</v>
+        <v>154.3547920954952</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3539998531341553</v>
+        <v>0.1520001888275146</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>32.35479209549518</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.390122443834319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.914294316987418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1108.939999998708</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>251.81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>26.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.21168903071567</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.720264823079315</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>119.2360000000136</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>250.0249999999029</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>202.082999999955</v>
+        <v>154.4</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>160.868999999991</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>83.34899999999284</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>250.0249999998913</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>160.86899999998</v>
+        <v>154.4</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>100.024999999891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.86899999997982</v>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
@@ -1209,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1242,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>15.975</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,34 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
